--- a/csv/policies/net zero/NZ_carbon tax/formula_NZ_carbon tax_CAN.xlsx
+++ b/csv/policies/net zero/NZ_carbon tax/formula_NZ_carbon tax_CAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\net zero\NZ_carbon tax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B51AB70B-FC25-4832-A8DD-9B63F6456FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099B8FAC-4069-4B17-9166-78237BD71B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="3660" windowWidth="17280" windowHeight="8880" xr2:uid="{49BE223C-A54A-4AA7-86DB-B2BA1D213AEF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49BE223C-A54A-4AA7-86DB-B2BA1D213AEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>$/tCO2e</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>N2O</t>
   </si>
 </sst>
 </file>
@@ -520,20 +529,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1F5659-477B-40AC-9EC9-5A1D744FCFA4}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X3"/>
+      <selection activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -607,7 +616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -657,24 +666,216 @@
         <v>68.341643330825832</v>
       </c>
       <c r="S3">
-        <f>R3*1.1^5</f>
-        <v>110.06490000072834</v>
+        <f>R3*1.12^5</f>
+        <v>120.44132674030169</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:W3" si="0">S3*1.1^5</f>
-        <v>177.26062210017307</v>
+        <f t="shared" ref="T3:W3" si="0">S3*1.12^5</f>
+        <v>212.2587704943445</v>
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>285.48000449854982</v>
+        <v>374.0724788669657</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>459.7684020449596</v>
+        <v>659.24352204520494</v>
       </c>
       <c r="W3">
         <f t="shared" si="0"/>
-        <v>740.46160917742816</v>
+        <v>1161.8123382798431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>S5</f>
+        <v>120.44132674030169</v>
+      </c>
+      <c r="T4">
+        <f>T5</f>
+        <v>212.2587704943445</v>
+      </c>
+      <c r="U4">
+        <f>U5</f>
+        <v>374.0724788669657</v>
+      </c>
+      <c r="V4">
+        <f>V5</f>
+        <v>659.24352204520494</v>
+      </c>
+      <c r="W4">
+        <f>W5</f>
+        <v>1161.8123382798431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>S3</f>
+        <v>120.44132674030169</v>
+      </c>
+      <c r="T5">
+        <f>T3</f>
+        <v>212.2587704943445</v>
+      </c>
+      <c r="U5">
+        <f>U3</f>
+        <v>374.0724788669657</v>
+      </c>
+      <c r="V5">
+        <f>V3</f>
+        <v>659.24352204520494</v>
+      </c>
+      <c r="W5">
+        <f>W3</f>
+        <v>1161.8123382798431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>S4</f>
+        <v>120.44132674030169</v>
+      </c>
+      <c r="T6">
+        <f>T4</f>
+        <v>212.2587704943445</v>
+      </c>
+      <c r="U6">
+        <f>U4</f>
+        <v>374.0724788669657</v>
+      </c>
+      <c r="V6">
+        <f>V4</f>
+        <v>659.24352204520494</v>
+      </c>
+      <c r="W6">
+        <f>W4</f>
+        <v>1161.8123382798431</v>
       </c>
     </row>
   </sheetData>
